--- a/ExplorerFund/operation/strategy_update/shfe/night/shfe_night_63_config.xlsx
+++ b/ExplorerFund/operation/strategy_update/shfe/night/shfe_night_63_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16458" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16460" uniqueCount="58">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新手数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +761,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:XES23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -49833,7 +49842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16373">
+    <row r="2" spans="1:16373" hidden="1">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -49857,7 +49866,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:16373">
+    <row r="3" spans="1:16373" hidden="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -49881,7 +49890,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:16373">
+    <row r="4" spans="1:16373" hidden="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -49905,7 +49914,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:16373">
+    <row r="5" spans="1:16373" hidden="1">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -49929,7 +49938,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:16373">
+    <row r="6" spans="1:16373" hidden="1">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -49953,7 +49962,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:16373">
+    <row r="7" spans="1:16373" hidden="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -49977,7 +49986,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:16373" ht="16.5" customHeight="1">
+    <row r="8" spans="1:16373" ht="16.5" hidden="1" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -50001,7 +50010,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:16373" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="9" spans="1:16373" s="3" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -50026,7 +50035,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:16373" s="3" customFormat="1">
+    <row r="10" spans="1:16373" s="3" customFormat="1" hidden="1">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -50051,7 +50060,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:16373" s="3" customFormat="1">
+    <row r="11" spans="1:16373" s="3" customFormat="1" hidden="1">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -50076,7 +50085,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:16373">
+    <row r="12" spans="1:16373" hidden="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -50114,15 +50123,17 @@
         <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16373">
       <c r="A14" s="3" t="s">
@@ -50162,17 +50173,19 @@
         <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="16" spans="1:16373">
+    <row r="16" spans="1:16373" hidden="1">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -50196,7 +50209,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -50220,7 +50233,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -50244,7 +50257,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -50268,7 +50281,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -50297,7 +50310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -50326,7 +50339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" hidden="1">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -50366,7 +50379,13 @@
       <c r="I23" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A22"/>
+  <autoFilter ref="A1:A22">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ni"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
